--- a/data/E Colombia Exchange_Rates_incl_Effective_Ex_Ra (1Tr2014 a 2Tr2021 sólo trimestral) FMI.xlsx
+++ b/data/E Colombia Exchange_Rates_incl_Effective_Ex_Ra (1Tr2014 a 2Tr2021 sólo trimestral) FMI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABD05CF-34E7-3D43-934C-996828BE19D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7F70D5-E730-D64C-9C8C-1BD4D523AF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="18060" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,11 +499,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BJ7"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.15"/>
